--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_57_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_57_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.1661061502206673, 1.7798945991083455]</t>
+          <t>[1.167622212086631, 1.7783785372423817]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.485700451553384e-12</v>
+        <v>1.27586829989923e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.485700451553384e-12</v>
+        <v>1.27586829989923e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.08805264694746207</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.3144737390980774, 0.13836844520315328]</t>
+          <t>[-0.3018947895341544, 0.12578949563923025]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.4375760603292402</v>
+        <v>0.4112916984985915</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4375760603292402</v>
+        <v>0.4112916984985915</v>
       </c>
       <c r="S2" t="n">
         <v>0.4658683926611258</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.2726328824221904, 0.6591039029000612]</t>
+          <t>[0.2725127434748713, 0.6592240418473803]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.48465724101321e-05</v>
+        <v>1.499544424943267e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48465724101321e-05</v>
+        <v>1.499544424943267e-05</v>
       </c>
       <c r="W2" t="n">
         <v>0.3387187187187273</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.5322722722722857</v>
+        <v>-0.4838838838838964</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.20970970970974</v>
+        <v>1.161321321321351</v>
       </c>
     </row>
   </sheetData>
